--- a/counts/ALS Mice/new filtering/tg2-tg3/other/KEGG.xlsx
+++ b/counts/ALS Mice/new filtering/tg2-tg3/other/KEGG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -63,15 +63,15 @@
     <t>mmu04610</t>
   </si>
   <si>
+    <t>mmu04151</t>
+  </si>
+  <si>
     <t>mmu04940</t>
   </si>
   <si>
     <t>mmu04510</t>
   </si>
   <si>
-    <t>mmu04151</t>
-  </si>
-  <si>
     <t>mmu04145</t>
   </si>
   <si>
@@ -123,9 +123,6 @@
     <t>mmu04210</t>
   </si>
   <si>
-    <t>mmu04630</t>
-  </si>
-  <si>
     <t>mmu00340</t>
   </si>
   <si>
@@ -156,15 +153,15 @@
     <t>Complement and coagulation cascades</t>
   </si>
   <si>
+    <t>PI3K-Akt signaling pathway</t>
+  </si>
+  <si>
     <t>Type I diabetes mellitus</t>
   </si>
   <si>
     <t>Focal adhesion</t>
   </si>
   <si>
-    <t>PI3K-Akt signaling pathway</t>
-  </si>
-  <si>
     <t>Phagosome</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>Apoptosis</t>
   </si>
   <si>
-    <t>Jak-STAT signaling pathway</t>
-  </si>
-  <si>
     <t>Histidine metabolism</t>
   </si>
   <si>
@@ -246,12 +240,12 @@
     <t>9/195</t>
   </si>
   <si>
+    <t>20/195</t>
+  </si>
+  <si>
     <t>14/195</t>
   </si>
   <si>
-    <t>20/195</t>
-  </si>
-  <si>
     <t>13/195</t>
   </si>
   <si>
@@ -273,97 +267,94 @@
     <t>3/195</t>
   </si>
   <si>
-    <t>206/8116</t>
-  </si>
-  <si>
-    <t>350/8116</t>
-  </si>
-  <si>
-    <t>169/8116</t>
-  </si>
-  <si>
-    <t>215/8116</t>
-  </si>
-  <si>
-    <t>64/8116</t>
-  </si>
-  <si>
-    <t>65/8116</t>
-  </si>
-  <si>
-    <t>87/8116</t>
-  </si>
-  <si>
-    <t>70/8116</t>
-  </si>
-  <si>
-    <t>199/8116</t>
-  </si>
-  <si>
-    <t>355/8116</t>
-  </si>
-  <si>
-    <t>182/8116</t>
-  </si>
-  <si>
-    <t>79/8116</t>
-  </si>
-  <si>
-    <t>217/8116</t>
-  </si>
-  <si>
-    <t>271/8116</t>
-  </si>
-  <si>
-    <t>83/8116</t>
-  </si>
-  <si>
-    <t>95/8116</t>
-  </si>
-  <si>
-    <t>220/8116</t>
-  </si>
-  <si>
-    <t>88/8116</t>
-  </si>
-  <si>
-    <t>186/8116</t>
-  </si>
-  <si>
-    <t>91/8116</t>
-  </si>
-  <si>
-    <t>142/8116</t>
-  </si>
-  <si>
-    <t>80/8116</t>
-  </si>
-  <si>
-    <t>214/8116</t>
-  </si>
-  <si>
-    <t>108/8116</t>
-  </si>
-  <si>
-    <t>61/8116</t>
-  </si>
-  <si>
-    <t>41/8116</t>
-  </si>
-  <si>
-    <t>136/8116</t>
-  </si>
-  <si>
-    <t>165/8116</t>
-  </si>
-  <si>
-    <t>25/8116</t>
-  </si>
-  <si>
-    <t>45/8116</t>
-  </si>
-  <si>
-    <t>231/8116</t>
+    <t>206/8092</t>
+  </si>
+  <si>
+    <t>350/8092</t>
+  </si>
+  <si>
+    <t>169/8092</t>
+  </si>
+  <si>
+    <t>215/8092</t>
+  </si>
+  <si>
+    <t>64/8092</t>
+  </si>
+  <si>
+    <t>65/8092</t>
+  </si>
+  <si>
+    <t>87/8092</t>
+  </si>
+  <si>
+    <t>346/8092</t>
+  </si>
+  <si>
+    <t>70/8092</t>
+  </si>
+  <si>
+    <t>199/8092</t>
+  </si>
+  <si>
+    <t>182/8092</t>
+  </si>
+  <si>
+    <t>79/8092</t>
+  </si>
+  <si>
+    <t>217/8092</t>
+  </si>
+  <si>
+    <t>271/8092</t>
+  </si>
+  <si>
+    <t>83/8092</t>
+  </si>
+  <si>
+    <t>95/8092</t>
+  </si>
+  <si>
+    <t>220/8092</t>
+  </si>
+  <si>
+    <t>88/8092</t>
+  </si>
+  <si>
+    <t>186/8092</t>
+  </si>
+  <si>
+    <t>91/8092</t>
+  </si>
+  <si>
+    <t>142/8092</t>
+  </si>
+  <si>
+    <t>80/8092</t>
+  </si>
+  <si>
+    <t>214/8092</t>
+  </si>
+  <si>
+    <t>108/8092</t>
+  </si>
+  <si>
+    <t>61/8092</t>
+  </si>
+  <si>
+    <t>41/8092</t>
+  </si>
+  <si>
+    <t>136/8092</t>
+  </si>
+  <si>
+    <t>25/8092</t>
+  </si>
+  <si>
+    <t>45/8092</t>
+  </si>
+  <si>
+    <t>231/8092</t>
   </si>
   <si>
     <t>68794/22350/18793/14173/15442/15234/12512/74055/14102/15200/17869/21859/20971/17295/16402/22415/12390</t>
@@ -384,12 +375,12 @@
     <t>50909/18793/50908/16411/232345/14066/12266/12258/17221</t>
   </si>
   <si>
+    <t>16188/235542/14173/65086/13685/15234/21923/21827/13645/241226/16782/320910/21826/15370/17869/11600/18414/74747/17295/16402</t>
+  </si>
+  <si>
     <t>68794/17907/15234/21923/21827/13645/241226/16782/320910/21826/107589/17295/16402/12390</t>
   </si>
   <si>
-    <t>16188/235542/14173/65086/13685/15234/21923/21827/13645/241226/16782/320910/21826/15370/17869/11600/18414/74747/17295/16402</t>
-  </si>
-  <si>
     <t>15013/14964/667977/15040/15018/50909/15000/15015/21827/20288/12266/21826/16402</t>
   </si>
   <si>
@@ -435,9 +426,6 @@
     <t>16188/21937/12364/14102/58801/235587/64138/13033</t>
   </si>
   <si>
-    <t>16188/12982/54607/16878/13645/17869/18414/14580/16161</t>
-  </si>
-  <si>
     <t>15186/13195/15109</t>
   </si>
   <si>
@@ -510,28 +498,28 @@
     <t>2/74</t>
   </si>
   <si>
-    <t>19/8116</t>
-  </si>
-  <si>
-    <t>23/8116</t>
-  </si>
-  <si>
-    <t>52/8116</t>
-  </si>
-  <si>
-    <t>71/8116</t>
-  </si>
-  <si>
-    <t>36/8116</t>
-  </si>
-  <si>
-    <t>11/8116</t>
-  </si>
-  <si>
-    <t>86/8116</t>
-  </si>
-  <si>
-    <t>49/8116</t>
+    <t>19/8092</t>
+  </si>
+  <si>
+    <t>23/8092</t>
+  </si>
+  <si>
+    <t>52/8092</t>
+  </si>
+  <si>
+    <t>71/8092</t>
+  </si>
+  <si>
+    <t>36/8092</t>
+  </si>
+  <si>
+    <t>11/8092</t>
+  </si>
+  <si>
+    <t>86/8092</t>
+  </si>
+  <si>
+    <t>49/8092</t>
   </si>
   <si>
     <t>13360/74754/66234/18194/73166/20775/14137/13121</t>
@@ -641,25 +629,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>8.490587349745346E-6</v>
+        <v>8.82308798223899E-6</v>
       </c>
       <c r="G2" t="n">
-        <v>9.55394303938605E-4</v>
+        <v>9.84891156801403E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>8.287133786140147E-4</v>
+        <v>8.535127538523956E-4</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" t="n">
         <v>17.0</v>
@@ -673,25 +661,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.011519441454737E-5</v>
+        <v>1.0607546920278413E-5</v>
       </c>
       <c r="G3" t="n">
-        <v>9.55394303938605E-4</v>
+        <v>9.84891156801403E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>8.287133786140147E-4</v>
+        <v>8.535127538523956E-4</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J3" t="n">
         <v>23.0</v>
@@ -705,25 +693,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" t="n">
-        <v>1.230121421380178E-5</v>
+        <v>1.273566151036297E-5</v>
       </c>
       <c r="G4" t="n">
-        <v>9.55394303938605E-4</v>
+        <v>9.84891156801403E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>8.287133786140147E-4</v>
+        <v>8.535127538523956E-4</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J4" t="n">
         <v>15.0</v>
@@ -737,25 +725,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" t="n">
-        <v>5.6380128751677524E-5</v>
+        <v>5.8377752360385574E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0032841424997852157</v>
+        <v>0.003385909636902363</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0028486801895584433</v>
+        <v>0.0029342501844299065</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J5" t="n">
         <v>16.0</v>
@@ -769,25 +757,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" t="n">
-        <v>1.3442965695607974E-4</v>
+        <v>1.3718069517924505E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0058322246000487524</v>
+        <v>0.005925675135673269</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005058898229994851</v>
+        <v>0.005135226637538994</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J6" t="n">
         <v>8.0</v>
@@ -801,25 +789,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5018604120297215E-4</v>
+        <v>1.532502190260328E-4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0058322246000487524</v>
+        <v>0.005925675135673269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005058898229994851</v>
+        <v>0.005135226637538994</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J7" t="n">
         <v>8.0</v>
@@ -833,25 +821,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2563121757312562E-4</v>
+        <v>2.3061214813884556E-4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007384597329301052</v>
+        <v>0.006667242169315687</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006405433418684446</v>
+        <v>0.005777873204806244</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J8" t="n">
         <v>9.0</v>
@@ -865,28 +853,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>2.535484061562593E-4</v>
+        <v>2.412504364145081E-4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007384597329301052</v>
+        <v>0.006667242169315687</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006405433418684446</v>
+        <v>0.005777873204806244</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
@@ -897,28 +885,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>2.9792890068250697E-4</v>
+        <v>2.586430151889706E-4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007581941197512824</v>
+        <v>0.006667242169315687</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006576610390433532</v>
+        <v>0.005777873204806244</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J10" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
@@ -929,28 +917,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
-        <v>3.2540520160999245E-4</v>
+        <v>3.0694487616943623E-4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007581941197512824</v>
+        <v>0.007121121127130921</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006576610390433532</v>
+        <v>0.006171207510353929</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J11" t="n">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
@@ -961,25 +949,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" t="n">
-        <v>4.2336728428503276E-4</v>
+        <v>4.3533939863832176E-4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008967688839855695</v>
+        <v>0.009181703680371876</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007778614218442708</v>
+        <v>0.007956921066021002</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J12" t="n">
         <v>13.0</v>
@@ -993,25 +981,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F13" t="n">
-        <v>5.828685068463266E-4</v>
+        <v>5.942571028224788E-4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.011317363507932842</v>
+        <v>0.011488970654567922</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009816732746885501</v>
+        <v>0.009956412863078372</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J13" t="n">
         <v>8.0</v>
@@ -1025,25 +1013,25 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" t="n">
-        <v>7.136417023626063E-4</v>
+        <v>7.344121965453591E-4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.012614564022131345</v>
+        <v>0.01280275907629069</v>
       </c>
       <c r="H14" t="n">
-        <v>0.010941930391909728</v>
+        <v>0.011094950016204726</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J14" t="n">
         <v>14.0</v>
@@ -1057,25 +1045,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" t="n">
-        <v>7.924331317142012E-4</v>
+        <v>8.176193130199436E-4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.012614564022131345</v>
+        <v>0.01280275907629069</v>
       </c>
       <c r="H15" t="n">
-        <v>0.010941930391909728</v>
+        <v>0.011094950016204726</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J15" t="n">
         <v>16.0</v>
@@ -1089,25 +1077,25 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" t="n">
-        <v>8.120963962745502E-4</v>
+        <v>8.27764595449829E-4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.012614564022131345</v>
+        <v>0.01280275907629069</v>
       </c>
       <c r="H16" t="n">
-        <v>0.010941930391909728</v>
+        <v>0.011094950016204726</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J16" t="n">
         <v>8.0</v>
@@ -1121,25 +1109,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001959562693594099</v>
+        <v>0.0019959350681000815</v>
       </c>
       <c r="G17" t="n">
-        <v>0.028536131725464067</v>
+        <v>0.028941058487451182</v>
       </c>
       <c r="H17" t="n">
-        <v>0.024752370866451778</v>
+        <v>0.025080499868889182</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J17" t="n">
         <v>8.0</v>
@@ -1153,25 +1141,25 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002427260104614817</v>
+        <v>0.0024900361883936108</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03326774143383837</v>
+        <v>0.03398167033572457</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02885659071740216</v>
+        <v>0.029448725200196885</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J18" t="n">
         <v>13.0</v>
@@ -1185,25 +1173,25 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005103612758764745</v>
+        <v>0.005185269464307021</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06284271089049936</v>
+        <v>0.063947311213065</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05451005417201662</v>
+        <v>0.05541713449045106</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J19" t="n">
         <v>7.0</v>
@@ -1217,25 +1205,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0051245129052338535</v>
+        <v>0.005237064280380323</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06284271089049936</v>
+        <v>0.063947311213065</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05451005417201662</v>
+        <v>0.05541713449045106</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J20" t="n">
         <v>11.0</v>
@@ -1249,25 +1237,25 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006127697304811435</v>
+        <v>0.0062246517750909535</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07138767360105322</v>
+        <v>0.07220596059105507</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06192199381704187</v>
+        <v>0.06257413100223011</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J21" t="n">
         <v>7.0</v>
@@ -1281,25 +1269,25 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007100794901296292</v>
+        <v>0.007233553585751065</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07878501009533505</v>
+        <v>0.07991354437591652</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0683384772455583</v>
+        <v>0.06925357067059916</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J22" t="n">
         <v>9.0</v>
@@ -1313,25 +1301,25 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01228339247420542</v>
+        <v>0.012449445449025383</v>
       </c>
       <c r="G23" t="n">
-        <v>0.13009229302226652</v>
+        <v>0.13128506109881313</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1128426485668632</v>
+        <v>0.11377244405568651</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J23" t="n">
         <v>6.0</v>
@@ -1345,25 +1333,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.013989666693505003</v>
+        <v>0.01427296642069684</v>
       </c>
       <c r="G24" t="n">
-        <v>0.14172140606898545</v>
+        <v>0.14320465230155702</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12292979428617669</v>
+        <v>0.12410203534300088</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J24" t="n">
         <v>11.0</v>
@@ -1377,25 +1365,25 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F25" t="n">
-        <v>0.015039138953392771</v>
+        <v>0.015262123721173755</v>
       </c>
       <c r="G25" t="n">
-        <v>0.14216289544003588</v>
+        <v>0.14320465230155702</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12331274418110183</v>
+        <v>0.12410203534300088</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J25" t="n">
         <v>7.0</v>
@@ -1409,25 +1397,25 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01525352955365192</v>
+        <v>0.01543153580835744</v>
       </c>
       <c r="G26" t="n">
-        <v>0.14216289544003588</v>
+        <v>0.14320465230155702</v>
       </c>
       <c r="H26" t="n">
-        <v>0.12331274418110183</v>
+        <v>0.12410203534300088</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J26" t="n">
         <v>5.0</v>
@@ -1441,25 +1429,25 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27" t="n">
-        <v>0.016356117527586343</v>
+        <v>0.01651718894305505</v>
       </c>
       <c r="G27" t="n">
-        <v>0.14281238987900255</v>
+        <v>0.14449058714383672</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1238761186210458</v>
+        <v>0.1252164344123086</v>
       </c>
       <c r="I27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J27" t="n">
         <v>4.0</v>
@@ -1473,25 +1461,25 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01654907522203034</v>
+        <v>0.016815714883118928</v>
       </c>
       <c r="G28" t="n">
-        <v>0.14281238987900255</v>
+        <v>0.14449058714383672</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1238761186210458</v>
+        <v>0.1252164344123086</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J28" t="n">
         <v>8.0</v>
@@ -1505,28 +1493,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F29" t="n">
-        <v>0.017812089878058122</v>
+        <v>0.02145744411061696</v>
       </c>
       <c r="G29" t="n">
-        <v>0.14822203362812653</v>
+        <v>0.17779025120225483</v>
       </c>
       <c r="H29" t="n">
-        <v>0.12856846829275034</v>
+        <v>0.15407412876420448</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J29" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
@@ -1537,28 +1525,28 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F30" t="n">
-        <v>0.021292102473260417</v>
+        <v>0.022567697599421795</v>
       </c>
       <c r="G30" t="n">
-        <v>0.17107103021619577</v>
+        <v>0.18054158079537436</v>
       </c>
       <c r="H30" t="n">
-        <v>0.14838779219114337</v>
+        <v>0.1564584479669533</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J30" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -1569,59 +1557,27 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F31" t="n">
-        <v>0.022352393426632196</v>
+        <v>0.023761531159057724</v>
       </c>
       <c r="G31" t="n">
-        <v>0.17360358894684338</v>
+        <v>0.18375584096337974</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15058454518994321</v>
+        <v>0.159243945662457</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J31" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.023313300234172916</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.1752257727278158</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.15199163480343633</v>
-      </c>
-      <c r="I32" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -1670,31 +1626,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2602768169622346E-12</v>
+        <v>2.3139395059289336E-12</v>
       </c>
       <c r="G2" t="n">
-        <v>2.689729412185059E-10</v>
+        <v>2.7304486169961417E-10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.498200692431944E-10</v>
+        <v>2.5331548275432536E-10</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J2" t="n">
         <v>8.0</v>
@@ -1702,31 +1658,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F3" t="n">
-        <v>8.557740995101292E-10</v>
+        <v>8.734045050803601E-10</v>
       </c>
       <c r="G3" t="n">
-        <v>5.091855892085269E-8</v>
+        <v>5.1530865799741245E-8</v>
       </c>
       <c r="H3" t="n">
-        <v>4.729277918345451E-8</v>
+        <v>4.7807404488609184E-8</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J3" t="n">
         <v>7.0</v>
@@ -1734,31 +1690,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0012384725760443353</v>
+        <v>0.0012520050911691138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04912607884975863</v>
+        <v>0.04924553358598514</v>
       </c>
       <c r="H4" t="n">
-        <v>0.045627937012159725</v>
+        <v>0.04568720332687293</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J4" t="n">
         <v>4.0</v>
@@ -1766,31 +1722,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0039026985080528897</v>
+        <v>0.003943834188973344</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08483054119824991</v>
+        <v>0.0846040457665775</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07878997634512377</v>
+        <v>0.07849081855240017</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J5" t="n">
         <v>4.0</v>
@@ -1798,31 +1754,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004186723904625804</v>
+        <v>0.004221390923017127</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08483054119824991</v>
+        <v>0.0846040457665775</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07878997634512377</v>
+        <v>0.07849081855240017</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J6" t="n">
         <v>3.0</v>
@@ -1830,31 +1786,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004277170144449576</v>
+        <v>0.004301900632198856</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08483054119824991</v>
+        <v>0.0846040457665775</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07878997634512377</v>
+        <v>0.07849081855240017</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J7" t="n">
         <v>2.0</v>
@@ -1862,31 +1818,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
         <v>158</v>
       </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0077001012963974855</v>
+        <v>0.007778934563544274</v>
       </c>
       <c r="G8" t="n">
-        <v>0.13090172203875725</v>
+        <v>0.13113061121403205</v>
       </c>
       <c r="H8" t="n">
-        <v>0.12158054678522347</v>
+        <v>0.12165551798625632</v>
       </c>
       <c r="I8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J8" t="n">
         <v>4.0</v>
@@ -1894,31 +1850,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="s">
         <v>159</v>
       </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009928932820297292</v>
+        <v>0.010008669342504398</v>
       </c>
       <c r="G9" t="n">
-        <v>0.14769287570192222</v>
+        <v>0.14762787280193987</v>
       </c>
       <c r="H9" t="n">
-        <v>0.137176045543581</v>
+        <v>0.1369607383711128</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J9" t="n">
         <v>3.0</v>
